--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1564835.367777143</v>
+        <v>1562342.625511354</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11030220.51884023</v>
+        <v>11030220.51884022</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>341.1569118905548</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980815</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>313.1061118477572</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>340.353440299336</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687854</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805274</v>
+        <v>272.8308074748872</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>253.0308346143947</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524984</v>
+        <v>67.61083201525003</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>162.3410403666944</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>209.4182421859762</v>
       </c>
       <c r="V11" t="n">
-        <v>286.1753286972089</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W11" t="n">
-        <v>307.664038944487</v>
+        <v>307.6640389444872</v>
       </c>
       <c r="X11" t="n">
-        <v>227.5104989334652</v>
+        <v>328.1541709055433</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>344.6610088831278</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090113</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257018</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452863</v>
+        <v>107.0385432452866</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736434</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500052</v>
+        <v>103.8441182500055</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861022</v>
+        <v>98.92939386132559</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.7754906369121</v>
+        <v>54.77549063691229</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712134</v>
+        <v>47.35522289712155</v>
       </c>
       <c r="S13" t="n">
-        <v>148.1920955585159</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9720195032432</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U13" t="n">
-        <v>115.9373386665185</v>
+        <v>244.6349084326871</v>
       </c>
       <c r="V13" t="n">
-        <v>210.560713550902</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W13" t="n">
-        <v>244.946068563665</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161111</v>
+        <v>184.1327256161114</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791688</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>341.1569118905548</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980815</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>253.1424887403801</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>340.353440299336</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687854</v>
+        <v>365.2991159687857</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805274</v>
+        <v>369.3447958805277</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>253.0308346143947</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.61083201525003</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3410403666944</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>209.4182421859762</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W14" t="n">
-        <v>307.664038944487</v>
+        <v>158.9570464178173</v>
       </c>
       <c r="X14" t="n">
-        <v>328.154170905543</v>
+        <v>328.1541709055433</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831276</v>
+        <v>344.6610088831278</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090113</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257018</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452863</v>
+        <v>82.18509172911966</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736434</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500052</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861022</v>
+        <v>124.4488784861024</v>
       </c>
       <c r="H16" t="n">
-        <v>29.25600601213929</v>
+        <v>103.178085141395</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.7754906369123</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712134</v>
+        <v>47.35522289712155</v>
       </c>
       <c r="S16" t="n">
-        <v>148.1920955585159</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032432</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U16" t="n">
-        <v>244.6349084326869</v>
+        <v>244.6349084326871</v>
       </c>
       <c r="V16" t="n">
-        <v>210.560713550902</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W16" t="n">
-        <v>244.946068563665</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161111</v>
+        <v>184.1327256161114</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0077235791688</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>294.181775271962</v>
+        <v>294.1817752719622</v>
       </c>
       <c r="C17" t="n">
-        <v>276.720825379489</v>
+        <v>276.7208253794892</v>
       </c>
       <c r="D17" t="n">
-        <v>266.1309752291644</v>
+        <v>266.1309752291646</v>
       </c>
       <c r="E17" t="n">
-        <v>293.3783036807432</v>
+        <v>293.3783036807434</v>
       </c>
       <c r="F17" t="n">
-        <v>318.3239793501929</v>
+        <v>318.3239793501931</v>
       </c>
       <c r="G17" t="n">
-        <v>322.3696592619349</v>
+        <v>194.5125055497222</v>
       </c>
       <c r="H17" t="n">
-        <v>206.0556979958019</v>
+        <v>206.0556979958021</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20.6356953966573</v>
+        <v>20.6356953966575</v>
       </c>
       <c r="T17" t="n">
-        <v>115.3659037481016</v>
+        <v>115.3659037481018</v>
       </c>
       <c r="U17" t="n">
-        <v>34.58595185517195</v>
+        <v>162.4431055673836</v>
       </c>
       <c r="V17" t="n">
-        <v>239.2001920786163</v>
+        <v>239.2001920786166</v>
       </c>
       <c r="W17" t="n">
-        <v>260.6889023258944</v>
+        <v>260.6889023258947</v>
       </c>
       <c r="X17" t="n">
-        <v>281.1790342869505</v>
+        <v>281.1790342869507</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.685872264535</v>
+        <v>297.6858722645352</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.27991379041875</v>
+        <v>91.27991379041895</v>
       </c>
       <c r="C19" t="n">
-        <v>78.69475470710928</v>
+        <v>78.69475470710948</v>
       </c>
       <c r="D19" t="n">
-        <v>60.0634066266938</v>
+        <v>60.063406626694</v>
       </c>
       <c r="E19" t="n">
-        <v>57.88189625505062</v>
+        <v>57.88189625505082</v>
       </c>
       <c r="F19" t="n">
-        <v>56.86898163141269</v>
+        <v>56.86898163141289</v>
       </c>
       <c r="G19" t="n">
-        <v>77.47374186750967</v>
+        <v>77.47374186750987</v>
       </c>
       <c r="H19" t="n">
-        <v>56.20294852280223</v>
+        <v>56.20294852280243</v>
       </c>
       <c r="I19" t="n">
-        <v>7.80035401831956</v>
+        <v>7.800354018319759</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3800862785287933</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>132.4689849331228</v>
+        <v>101.2169589399236</v>
       </c>
       <c r="T19" t="n">
-        <v>130.9968828846506</v>
+        <v>130.9968828846509</v>
       </c>
       <c r="U19" t="n">
-        <v>197.6597718140943</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>197.9709319450727</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4096149907156</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.0325869605762</v>
+        <v>130.0325869605765</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>294.181775271962</v>
+        <v>294.1817752719622</v>
       </c>
       <c r="C20" t="n">
-        <v>276.720825379489</v>
+        <v>276.7208253794892</v>
       </c>
       <c r="D20" t="n">
-        <v>266.1309752291644</v>
+        <v>266.1309752291646</v>
       </c>
       <c r="E20" t="n">
-        <v>293.3783036807432</v>
+        <v>293.3783036807434</v>
       </c>
       <c r="F20" t="n">
-        <v>318.3239793501929</v>
+        <v>318.3239793501931</v>
       </c>
       <c r="G20" t="n">
-        <v>322.3696592619349</v>
+        <v>194.5125055497224</v>
       </c>
       <c r="H20" t="n">
-        <v>206.0556979958019</v>
+        <v>206.0556979958021</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.144445432548576</v>
+        <v>20.63569539665748</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>115.3659037481018</v>
       </c>
       <c r="U20" t="n">
-        <v>162.4431055673834</v>
+        <v>162.4431055673836</v>
       </c>
       <c r="V20" t="n">
-        <v>239.2001920786163</v>
+        <v>239.2001920786166</v>
       </c>
       <c r="W20" t="n">
-        <v>260.6889023258944</v>
+        <v>260.6889023258947</v>
       </c>
       <c r="X20" t="n">
-        <v>281.1790342869505</v>
+        <v>281.1790342869507</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.685872264535</v>
+        <v>297.6858722645352</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.27991379041875</v>
+        <v>91.27991379041895</v>
       </c>
       <c r="C22" t="n">
-        <v>78.69475470710928</v>
+        <v>78.69475470710948</v>
       </c>
       <c r="D22" t="n">
-        <v>60.0634066266938</v>
+        <v>60.063406626694</v>
       </c>
       <c r="E22" t="n">
-        <v>57.88189625505062</v>
+        <v>57.88189625505082</v>
       </c>
       <c r="F22" t="n">
-        <v>56.86898163141269</v>
+        <v>88.12100762461014</v>
       </c>
       <c r="G22" t="n">
-        <v>77.47374186750967</v>
+        <v>77.47374186750987</v>
       </c>
       <c r="H22" t="n">
-        <v>56.20294852280223</v>
+        <v>56.20294852280243</v>
       </c>
       <c r="I22" t="n">
-        <v>7.80035401831956</v>
+        <v>7.800354018319744</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0.380086278528978</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>101.2169589399236</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>228.911797807294</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>163.5855769323094</v>
+        <v>163.5855769323097</v>
       </c>
       <c r="W22" t="n">
-        <v>197.9709319450724</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>137.1575889975186</v>
+        <v>137.1575889975188</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.0325869605762</v>
+        <v>130.0325869605765</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>294.181775271962</v>
+        <v>294.1817752719622</v>
       </c>
       <c r="C23" t="n">
-        <v>276.720825379489</v>
+        <v>276.7208253794892</v>
       </c>
       <c r="D23" t="n">
-        <v>266.1309752291644</v>
+        <v>266.1309752291646</v>
       </c>
       <c r="E23" t="n">
-        <v>293.3783036807432</v>
+        <v>293.3783036807434</v>
       </c>
       <c r="F23" t="n">
-        <v>318.3239793501929</v>
+        <v>318.3239793501931</v>
       </c>
       <c r="G23" t="n">
-        <v>322.3696592619349</v>
+        <v>322.3696592619351</v>
       </c>
       <c r="H23" t="n">
-        <v>206.0556979958019</v>
+        <v>206.0556979958021</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>20.63569539665725</v>
+        <v>20.63569539665748</v>
       </c>
       <c r="T23" t="n">
-        <v>115.3659037481016</v>
+        <v>115.3659037481018</v>
       </c>
       <c r="U23" t="n">
-        <v>162.4431055673834</v>
+        <v>162.4431055673836</v>
       </c>
       <c r="V23" t="n">
-        <v>239.2001920786163</v>
+        <v>239.2001920786165</v>
       </c>
       <c r="W23" t="n">
-        <v>260.6889023258944</v>
+        <v>260.6889023258947</v>
       </c>
       <c r="X23" t="n">
-        <v>281.1790342869505</v>
+        <v>281.1790342869507</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.685872264535</v>
+        <v>297.6858722645352</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.27991379041872</v>
+        <v>91.27991379041893</v>
       </c>
       <c r="C25" t="n">
-        <v>78.69475470710925</v>
+        <v>78.69475470710947</v>
       </c>
       <c r="D25" t="n">
-        <v>60.06340662669378</v>
+        <v>60.06340662669399</v>
       </c>
       <c r="E25" t="n">
-        <v>57.88189625505059</v>
+        <v>57.8818962550508</v>
       </c>
       <c r="F25" t="n">
-        <v>56.86898163141267</v>
+        <v>56.86898163141288</v>
       </c>
       <c r="G25" t="n">
-        <v>77.47374186750964</v>
+        <v>77.47374186750986</v>
       </c>
       <c r="H25" t="n">
-        <v>56.2029485228022</v>
+        <v>56.20294852280242</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>7.800354018319744</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3800862785287507</v>
+        <v>0.380086278528978</v>
       </c>
       <c r="S25" t="n">
-        <v>101.2169589399233</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>228.9117978072917</v>
       </c>
       <c r="V25" t="n">
-        <v>163.5855769323094</v>
+        <v>163.5855769323096</v>
       </c>
       <c r="W25" t="n">
-        <v>197.9709319450724</v>
+        <v>197.9709319450726</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4096149907188</v>
+        <v>137.1575889975188</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.0325869605762</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2558,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>52.2697922417855</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>52.72488496974808</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>226.7506987657568</v>
+        <v>143.899966510518</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,13 +2852,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247686</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>297.8788429748441</v>
+        <v>297.8788429748443</v>
       </c>
       <c r="C32" t="n">
-        <v>280.4178930823711</v>
+        <v>280.4178930823713</v>
       </c>
       <c r="D32" t="n">
-        <v>269.8280429320465</v>
+        <v>269.8280429320467</v>
       </c>
       <c r="E32" t="n">
-        <v>297.0753713836253</v>
+        <v>297.0753713836255</v>
       </c>
       <c r="F32" t="n">
-        <v>322.021047053075</v>
+        <v>322.0210470530752</v>
       </c>
       <c r="G32" t="n">
-        <v>326.066726964817</v>
+        <v>326.0667269648172</v>
       </c>
       <c r="H32" t="n">
-        <v>209.752765698684</v>
+        <v>209.7527656986842</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>24.33276309953942</v>
+        <v>24.33276309953958</v>
       </c>
       <c r="T32" t="n">
-        <v>119.0629714509837</v>
+        <v>119.0629714509839</v>
       </c>
       <c r="U32" t="n">
-        <v>166.1401732702656</v>
+        <v>166.1401732702657</v>
       </c>
       <c r="V32" t="n">
-        <v>242.8972597814985</v>
+        <v>242.8972597814986</v>
       </c>
       <c r="W32" t="n">
-        <v>264.3859700287766</v>
+        <v>264.3859700287767</v>
       </c>
       <c r="X32" t="n">
-        <v>284.8761019898326</v>
+        <v>284.8761019898328</v>
       </c>
       <c r="Y32" t="n">
-        <v>301.3829399674171</v>
+        <v>301.3829399674173</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247686</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.97698149330087</v>
+        <v>94.97698149330103</v>
       </c>
       <c r="C34" t="n">
-        <v>82.39182240999141</v>
+        <v>82.39182240999156</v>
       </c>
       <c r="D34" t="n">
-        <v>63.76047432957593</v>
+        <v>63.76047432957608</v>
       </c>
       <c r="E34" t="n">
-        <v>61.57896395793274</v>
+        <v>61.5789639579329</v>
       </c>
       <c r="F34" t="n">
-        <v>60.56604933429482</v>
+        <v>60.56604933429497</v>
       </c>
       <c r="G34" t="n">
-        <v>81.1708095703918</v>
+        <v>149.2159541147577</v>
       </c>
       <c r="H34" t="n">
-        <v>59.90001622568435</v>
+        <v>59.90001622568451</v>
       </c>
       <c r="I34" t="n">
-        <v>79.54256626556956</v>
+        <v>11.49742172120184</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>4.077153981411072</v>
       </c>
       <c r="S34" t="n">
-        <v>104.9140266428055</v>
+        <v>104.9140266428056</v>
       </c>
       <c r="T34" t="n">
-        <v>134.6939505875328</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>201.3568395169764</v>
+        <v>201.3568395169766</v>
       </c>
       <c r="V34" t="n">
-        <v>167.2826446351916</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>201.6679996479546</v>
+        <v>201.6679996479547</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>140.8546567004009</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.7296546634583</v>
+        <v>133.7296546634585</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.686498036493</v>
+        <v>82.14725995383226</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.5621008705228</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010732</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846414</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482621</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092323</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621575</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>239.4866237999598</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
@@ -3487,10 +3487,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>98.69583361727783</v>
       </c>
       <c r="G40" t="n">
-        <v>110.548026295317</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,7 +3724,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115148</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>89.27723295060925</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439435</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007004</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>232.0663560601684</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>231.0452163728801</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1734.920347504027</v>
+        <v>1257.745645963876</v>
       </c>
       <c r="C11" t="n">
-        <v>1407.954729324146</v>
+        <v>1257.745645963876</v>
       </c>
       <c r="D11" t="n">
-        <v>1407.954729324146</v>
+        <v>941.4768461176561</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.163375486433</v>
+        <v>597.685492279943</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1743694573571</v>
+        <v>597.685492279943</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0988180628849</v>
+        <v>322.0988180628851</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5054,13 +5054,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3257.312051896798</v>
       </c>
       <c r="T11" t="n">
-        <v>3257.312051896798</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="U11" t="n">
-        <v>3257.312051896798</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V11" t="n">
-        <v>2968.246063313758</v>
+        <v>2592.731636492879</v>
       </c>
       <c r="W11" t="n">
-        <v>2657.474306804176</v>
+        <v>2281.959879983296</v>
       </c>
       <c r="X11" t="n">
-        <v>2427.665722022898</v>
+        <v>1950.491020482747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2079.523288807617</v>
+        <v>1602.348587267466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>797.6353891180881</v>
+        <v>667.637843899734</v>
       </c>
       <c r="C13" t="n">
-        <v>670.6961049507125</v>
+        <v>540.6985597323583</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989082</v>
+        <v>432.5788190805538</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770464</v>
+        <v>326.6626242586918</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396673</v>
+        <v>221.7695755213126</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749176</v>
+        <v>121.840894853307</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533068</v>
+        <v>121.840894853307</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543159</v>
       </c>
       <c r="K13" t="n">
         <v>397.9442527783888</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020816</v>
+        <v>755.6652117020814</v>
       </c>
       <c r="M13" t="n">
         <v>1140.983417776827</v>
@@ -5218,31 +5218,31 @@
         <v>2137.812375262354</v>
       </c>
       <c r="Q13" t="n">
-        <v>2256.583831890066</v>
+        <v>2256.583831890065</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408125</v>
+        <v>2208.750273408124</v>
       </c>
       <c r="S13" t="n">
         <v>2059.061287995482</v>
       </c>
       <c r="T13" t="n">
-        <v>1879.29157132554</v>
+        <v>1879.291571325539</v>
       </c>
       <c r="U13" t="n">
-        <v>1762.183148430067</v>
+        <v>1632.185603211713</v>
       </c>
       <c r="V13" t="n">
-        <v>1549.495558984711</v>
+        <v>1419.498013766357</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.075287708282</v>
+        <v>1172.077742489928</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.082635570795</v>
+        <v>986.0850903524416</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.2869551877966</v>
+        <v>807.2894099694427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1990.619831080169</v>
+        <v>1407.954729324147</v>
       </c>
       <c r="C14" t="n">
-        <v>1663.654212900288</v>
+        <v>1407.954729324147</v>
       </c>
       <c r="D14" t="n">
         <v>1407.954729324147</v>
@@ -5264,31 +5264,31 @@
         <v>1064.163375486434</v>
       </c>
       <c r="F14" t="n">
-        <v>695.1743694573574</v>
+        <v>695.1743694573577</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0988180628849</v>
+        <v>322.0988180628852</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218352</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2881.797625075917</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W14" t="n">
-        <v>3014.834065099588</v>
+        <v>2432.168963343568</v>
       </c>
       <c r="X14" t="n">
-        <v>2683.36520559904</v>
+        <v>2100.700103843019</v>
       </c>
       <c r="Y14" t="n">
-        <v>2335.222772383759</v>
+        <v>1752.557670627738</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>667.6378438997367</v>
+        <v>667.6378438997338</v>
       </c>
       <c r="C16" t="n">
-        <v>540.6985597323611</v>
+        <v>540.6985597323579</v>
       </c>
       <c r="D16" t="n">
-        <v>432.5788190805567</v>
+        <v>457.68331556153</v>
       </c>
       <c r="E16" t="n">
-        <v>326.6626242586951</v>
+        <v>351.7671207396679</v>
       </c>
       <c r="F16" t="n">
-        <v>221.769575521316</v>
+        <v>351.7671207396679</v>
       </c>
       <c r="G16" t="n">
-        <v>96.06363765656654</v>
+        <v>226.061182874918</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>121.840894853307</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543152</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783887</v>
+        <v>397.9442527783881</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020815</v>
+        <v>755.6652117020808</v>
       </c>
       <c r="M16" t="n">
-        <v>1140.983417776827</v>
+        <v>1140.983417776826</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.552954957888</v>
+        <v>1523.552954957887</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353499</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262355</v>
+        <v>2137.812375262354</v>
       </c>
       <c r="Q16" t="n">
-        <v>2256.583831890066</v>
+        <v>2256.583831890065</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408125</v>
+        <v>2208.750273408124</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995483</v>
+        <v>2059.061287995482</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.29157132554</v>
+        <v>1879.291571325538</v>
       </c>
       <c r="U16" t="n">
-        <v>1632.185603211715</v>
+        <v>1632.185603211713</v>
       </c>
       <c r="V16" t="n">
-        <v>1419.498013766359</v>
+        <v>1419.498013766357</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.07774248993</v>
+        <v>1172.077742489927</v>
       </c>
       <c r="X16" t="n">
-        <v>986.085090352444</v>
+        <v>986.0850903524413</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.2894099694452</v>
+        <v>807.2894099694423</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1766.491349661807</v>
+        <v>1637.342709548461</v>
       </c>
       <c r="C17" t="n">
-        <v>1486.97536443</v>
+        <v>1357.826724316654</v>
       </c>
       <c r="D17" t="n">
-        <v>1218.156197531854</v>
+        <v>1089.007557418508</v>
       </c>
       <c r="E17" t="n">
-        <v>921.8144766422142</v>
+        <v>792.6658365288677</v>
       </c>
       <c r="F17" t="n">
-        <v>600.2751035612114</v>
+        <v>471.1264634478648</v>
       </c>
       <c r="G17" t="n">
-        <v>274.6491851148116</v>
+        <v>274.6491851148118</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
@@ -5525,7 +5525,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939507</v>
@@ -5537,28 +5537,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
         <v>3304.76168484487</v>
       </c>
       <c r="T17" t="n">
-        <v>3188.230468937697</v>
+        <v>3188.230468937696</v>
       </c>
       <c r="U17" t="n">
-        <v>3153.295164033482</v>
+        <v>3024.146523920137</v>
       </c>
       <c r="V17" t="n">
-        <v>2911.678808398516</v>
+        <v>2782.53016828517</v>
       </c>
       <c r="W17" t="n">
-        <v>2648.356684837006</v>
+        <v>2519.208044723661</v>
       </c>
       <c r="X17" t="n">
-        <v>2364.337458284531</v>
+        <v>2235.188818171186</v>
       </c>
       <c r="Y17" t="n">
-        <v>2063.644658017324</v>
+        <v>1934.496017903978</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>465.4879584815752</v>
+        <v>465.4879584815766</v>
       </c>
       <c r="C19" t="n">
-        <v>385.9983072622729</v>
+        <v>385.9983072622741</v>
       </c>
       <c r="D19" t="n">
-        <v>325.3281995585418</v>
+        <v>325.3281995585428</v>
       </c>
       <c r="E19" t="n">
-        <v>266.8616376847532</v>
+        <v>266.8616376847541</v>
       </c>
       <c r="F19" t="n">
-        <v>209.4182218954475</v>
+        <v>209.4182218954481</v>
       </c>
       <c r="G19" t="n">
-        <v>131.1619169787711</v>
+        <v>131.1619169787715</v>
       </c>
       <c r="H19" t="n">
-        <v>74.39126190523346</v>
+        <v>74.39126190523368</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1926.910622554625</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1793.103567066622</v>
+        <v>1735.224738381451</v>
       </c>
       <c r="T19" t="n">
-        <v>1660.783483344753</v>
+        <v>1602.904654659581</v>
       </c>
       <c r="U19" t="n">
-        <v>1461.127148179001</v>
+        <v>1313.801787785225</v>
       </c>
       <c r="V19" t="n">
-        <v>1206.442659973114</v>
+        <v>1059.117299579338</v>
       </c>
       <c r="W19" t="n">
-        <v>917.0254899361531</v>
+        <v>859.1466612509817</v>
       </c>
       <c r="X19" t="n">
-        <v>689.0359390381358</v>
+        <v>689.0359390381376</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.6898916032103</v>
+        <v>557.6898916032119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1766.491349661806</v>
+        <v>1637.342709548462</v>
       </c>
       <c r="C20" t="n">
-        <v>1486.975364429999</v>
+        <v>1357.826724316655</v>
       </c>
       <c r="D20" t="n">
-        <v>1218.156197531853</v>
+        <v>1089.007557418508</v>
       </c>
       <c r="E20" t="n">
-        <v>921.8144766422133</v>
+        <v>792.6658365288685</v>
       </c>
       <c r="F20" t="n">
-        <v>600.2751035612104</v>
+        <v>471.1264634478653</v>
       </c>
       <c r="G20" t="n">
-        <v>274.6491851148116</v>
+        <v>274.6491851148118</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3317.37910905104</v>
+        <v>3304.76168484487</v>
       </c>
       <c r="T20" t="n">
-        <v>3317.37910905104</v>
+        <v>3188.230468937697</v>
       </c>
       <c r="U20" t="n">
-        <v>3153.295164033481</v>
+        <v>3024.146523920138</v>
       </c>
       <c r="V20" t="n">
-        <v>2911.678808398515</v>
+        <v>2782.530168285171</v>
       </c>
       <c r="W20" t="n">
-        <v>2648.356684837006</v>
+        <v>2519.208044723662</v>
       </c>
       <c r="X20" t="n">
-        <v>2364.33745828453</v>
+        <v>2235.188818171187</v>
       </c>
       <c r="Y20" t="n">
-        <v>2063.644658017323</v>
+        <v>1934.496017903979</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>465.4879584815752</v>
+        <v>497.0556615050082</v>
       </c>
       <c r="C22" t="n">
-        <v>385.9983072622729</v>
+        <v>417.5660102857057</v>
       </c>
       <c r="D22" t="n">
-        <v>325.3281995585418</v>
+        <v>356.8959025819743</v>
       </c>
       <c r="E22" t="n">
-        <v>266.8616376847532</v>
+        <v>298.4293407081856</v>
       </c>
       <c r="F22" t="n">
-        <v>209.4182218954475</v>
+        <v>209.4182218954481</v>
       </c>
       <c r="G22" t="n">
-        <v>131.1619169787711</v>
+        <v>131.1619169787715</v>
       </c>
       <c r="H22" t="n">
-        <v>74.39126190523346</v>
+        <v>74.39126190523366</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>1926.910622554625</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1824.671270090056</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1602.904654659582</v>
       </c>
       <c r="U22" t="n">
-        <v>1192.787553053187</v>
+        <v>1313.801787785225</v>
       </c>
       <c r="V22" t="n">
-        <v>1027.549596555904</v>
+        <v>1148.563831287943</v>
       </c>
       <c r="W22" t="n">
-        <v>827.5789582275485</v>
+        <v>859.1466612509821</v>
       </c>
       <c r="X22" t="n">
-        <v>689.0359390381358</v>
+        <v>720.6036420615692</v>
       </c>
       <c r="Y22" t="n">
-        <v>557.6898916032103</v>
+        <v>589.2575946266435</v>
       </c>
     </row>
     <row r="23">
@@ -5972,67 +5972,67 @@
         <v>1220.791884064779</v>
       </c>
       <c r="E23" t="n">
-        <v>924.4501631751396</v>
+        <v>924.4501631751393</v>
       </c>
       <c r="F23" t="n">
         <v>602.9107900941362</v>
       </c>
       <c r="G23" t="n">
-        <v>277.284871647737</v>
+        <v>277.2848716477372</v>
       </c>
       <c r="H23" t="n">
-        <v>69.14780296510877</v>
+        <v>69.14780296510884</v>
       </c>
       <c r="I23" t="n">
-        <v>69.14780296510877</v>
+        <v>69.14780296510884</v>
       </c>
       <c r="J23" t="n">
-        <v>387.1755740374761</v>
+        <v>258.0269339241343</v>
       </c>
       <c r="K23" t="n">
-        <v>720.9949477273226</v>
+        <v>591.8463076139806</v>
       </c>
       <c r="L23" t="n">
-        <v>1172.029160975731</v>
+        <v>1042.880520862389</v>
       </c>
       <c r="M23" t="n">
-        <v>1705.561065647656</v>
+        <v>1576.412425534314</v>
       </c>
       <c r="N23" t="n">
-        <v>2252.339882706438</v>
+        <v>2123.191242593096</v>
       </c>
       <c r="O23" t="n">
-        <v>2755.312353585775</v>
+        <v>2626.163713472433</v>
       </c>
       <c r="P23" t="n">
-        <v>3150.086719942954</v>
+        <v>3150.086719942957</v>
       </c>
       <c r="Q23" t="n">
-        <v>3398.373081698636</v>
+        <v>3398.373081698639</v>
       </c>
       <c r="R23" t="n">
-        <v>3457.390148255438</v>
+        <v>3457.390148255442</v>
       </c>
       <c r="S23" t="n">
-        <v>3436.546011491138</v>
+        <v>3436.546011491141</v>
       </c>
       <c r="T23" t="n">
-        <v>3320.014795583966</v>
+        <v>3320.014795583967</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.930850566407</v>
+        <v>3155.930850566408</v>
       </c>
       <c r="V23" t="n">
-        <v>2914.314494931441</v>
+        <v>2914.314494931442</v>
       </c>
       <c r="W23" t="n">
-        <v>2650.992371369931</v>
+        <v>2650.992371369933</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.973144817456</v>
+        <v>2366.973144817457</v>
       </c>
       <c r="Y23" t="n">
-        <v>2066.280344550249</v>
+        <v>2066.28034455025</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>944.179541014033</v>
+        <v>944.179541014034</v>
       </c>
       <c r="C24" t="n">
-        <v>769.726511732906</v>
+        <v>769.7265117329071</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7921020716549</v>
+        <v>620.7921020716558</v>
       </c>
       <c r="E24" t="n">
-        <v>461.5546470661993</v>
+        <v>461.5546470662003</v>
       </c>
       <c r="F24" t="n">
-        <v>315.0200890930844</v>
+        <v>315.0200890930853</v>
       </c>
       <c r="G24" t="n">
-        <v>178.656988925703</v>
+        <v>178.6569889257034</v>
       </c>
       <c r="H24" t="n">
-        <v>88.15509456357063</v>
+        <v>88.15509456357091</v>
       </c>
       <c r="I24" t="n">
-        <v>69.14780296510877</v>
+        <v>69.14780296510884</v>
       </c>
       <c r="J24" t="n">
-        <v>162.8250724557259</v>
+        <v>162.8250724557261</v>
       </c>
       <c r="K24" t="n">
-        <v>401.089271436073</v>
+        <v>401.0892714360732</v>
       </c>
       <c r="L24" t="n">
-        <v>767.7874317487384</v>
+        <v>767.7874317487385</v>
       </c>
       <c r="M24" t="n">
         <v>1215.063756971054</v>
@@ -6081,37 +6081,37 @@
         <v>1688.586800525509</v>
       </c>
       <c r="O24" t="n">
-        <v>2099.548079943563</v>
+        <v>2099.548079943564</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.047671419666</v>
+        <v>2410.047671419667</v>
       </c>
       <c r="Q24" t="n">
         <v>2567.689229066266</v>
       </c>
       <c r="R24" t="n">
-        <v>2567.544875658781</v>
+        <v>2567.544875658782</v>
       </c>
       <c r="S24" t="n">
-        <v>2438.106989152261</v>
+        <v>2438.106989152262</v>
       </c>
       <c r="T24" t="n">
         <v>2245.463988830117</v>
       </c>
       <c r="U24" t="n">
-        <v>2017.396141964532</v>
+        <v>2017.396141964533</v>
       </c>
       <c r="V24" t="n">
         <v>1782.24403373279</v>
       </c>
       <c r="W24" t="n">
-        <v>1528.006677004588</v>
+        <v>1528.006677004589</v>
       </c>
       <c r="X24" t="n">
-        <v>1320.155176799055</v>
+        <v>1320.155176799056</v>
       </c>
       <c r="Y24" t="n">
-        <v>1112.394878034101</v>
+        <v>1112.394878034102</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.570176723105</v>
+        <v>468.123645014502</v>
       </c>
       <c r="C25" t="n">
-        <v>478.0805255038027</v>
+        <v>388.6339937951994</v>
       </c>
       <c r="D25" t="n">
-        <v>417.4104178000716</v>
+        <v>327.9638860914682</v>
       </c>
       <c r="E25" t="n">
-        <v>358.9438559262831</v>
+        <v>269.4973242176795</v>
       </c>
       <c r="F25" t="n">
-        <v>301.5004401369774</v>
+        <v>212.0539084283735</v>
       </c>
       <c r="G25" t="n">
-        <v>223.244135220301</v>
+        <v>133.7976035116969</v>
       </c>
       <c r="H25" t="n">
-        <v>166.4734801467634</v>
+        <v>77.02694843815908</v>
       </c>
       <c r="I25" t="n">
-        <v>69.14780296510877</v>
+        <v>69.14780296510884</v>
       </c>
       <c r="J25" t="n">
-        <v>114.2704354120443</v>
+        <v>114.2704354120444</v>
       </c>
       <c r="K25" t="n">
         <v>318.2576183609207</v>
@@ -6154,7 +6154,7 @@
         <v>634.8174168094167</v>
       </c>
       <c r="M25" t="n">
-        <v>978.9744624089658</v>
+        <v>978.9744624089657</v>
       </c>
       <c r="N25" t="n">
         <v>1320.38283911483</v>
@@ -6169,28 +6169,28 @@
         <v>1929.930234621418</v>
       </c>
       <c r="R25" t="n">
-        <v>1929.546309087551</v>
+        <v>1929.54630908755</v>
       </c>
       <c r="S25" t="n">
-        <v>1827.306956622982</v>
+        <v>1737.860424914376</v>
       </c>
       <c r="T25" t="n">
-        <v>1605.540341192508</v>
+        <v>1516.093809483903</v>
       </c>
       <c r="U25" t="n">
-        <v>1316.437474318151</v>
+        <v>1284.869771294719</v>
       </c>
       <c r="V25" t="n">
-        <v>1151.199517820869</v>
+        <v>1119.631814797436</v>
       </c>
       <c r="W25" t="n">
-        <v>951.2288794925128</v>
+        <v>919.6611764690803</v>
       </c>
       <c r="X25" t="n">
-        <v>781.1181572796655</v>
+        <v>781.1181572796673</v>
       </c>
       <c r="Y25" t="n">
-        <v>649.77210984474</v>
+        <v>560.3255781361372</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022.175403563946</v>
+        <v>1486.500586411813</v>
       </c>
       <c r="C26" t="n">
-        <v>1700.662519571607</v>
+        <v>1164.987702419474</v>
       </c>
       <c r="D26" t="n">
-        <v>1389.84645391293</v>
+        <v>854.1716367607974</v>
       </c>
       <c r="E26" t="n">
-        <v>1051.507834262759</v>
+        <v>801.3738668195999</v>
       </c>
       <c r="F26" t="n">
-        <v>687.9715624212249</v>
+        <v>437.8375949780656</v>
       </c>
       <c r="G26" t="n">
-        <v>320.3487452142949</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="H26" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="I26" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J26" t="n">
-        <v>259.0939087301608</v>
+        <v>375.465058664557</v>
       </c>
       <c r="K26" t="n">
-        <v>592.9132824200071</v>
+        <v>709.2844323544034</v>
       </c>
       <c r="L26" t="n">
-        <v>1043.947495668416</v>
+        <v>1160.318645602812</v>
       </c>
       <c r="M26" t="n">
-        <v>1577.47940034034</v>
+        <v>1693.850550274736</v>
       </c>
       <c r="N26" t="n">
-        <v>2124.258217399122</v>
+        <v>2240.629367333519</v>
       </c>
       <c r="O26" t="n">
-        <v>2627.230688278459</v>
+        <v>2743.601838212855</v>
       </c>
       <c r="P26" t="n">
-        <v>3022.005054635637</v>
+        <v>3138.376204570033</v>
       </c>
       <c r="Q26" t="n">
-        <v>3386.662566325713</v>
+        <v>3386.662566325715</v>
       </c>
       <c r="R26" t="n">
-        <v>3510.738888556768</v>
+        <v>3510.738888556771</v>
       </c>
       <c r="S26" t="n">
-        <v>3447.897853031936</v>
+        <v>3447.897853031939</v>
       </c>
       <c r="T26" t="n">
-        <v>3289.369738364232</v>
+        <v>3289.369738364234</v>
       </c>
       <c r="U26" t="n">
-        <v>3083.288894586141</v>
+        <v>3083.288894586145</v>
       </c>
       <c r="V26" t="n">
-        <v>3083.288894586141</v>
+        <v>2799.675640190647</v>
       </c>
       <c r="W26" t="n">
-        <v>3030.031435020739</v>
+        <v>2494.356617868606</v>
       </c>
       <c r="X26" t="n">
-        <v>2704.015309707732</v>
+        <v>2168.3404925556</v>
       </c>
       <c r="Y26" t="n">
-        <v>2361.325610679994</v>
+        <v>1825.650793527861</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>945.2465158200606</v>
+        <v>945.2465158200598</v>
       </c>
       <c r="C27" t="n">
-        <v>770.7934865389336</v>
+        <v>770.7934865389328</v>
       </c>
       <c r="D27" t="n">
-        <v>621.8590768776824</v>
+        <v>621.8590768776817</v>
       </c>
       <c r="E27" t="n">
-        <v>462.6216218722268</v>
+        <v>462.6216218722261</v>
       </c>
       <c r="F27" t="n">
-        <v>316.0870638991118</v>
+        <v>316.0870638991112</v>
       </c>
       <c r="G27" t="n">
-        <v>179.7239637317299</v>
+        <v>179.72396373173</v>
       </c>
       <c r="H27" t="n">
-        <v>89.22206936959742</v>
+        <v>89.22206936959748</v>
       </c>
       <c r="I27" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J27" t="n">
         <v>163.8920472617526</v>
@@ -6315,7 +6315,7 @@
         <v>1216.130731777081</v>
       </c>
       <c r="N27" t="n">
-        <v>1689.653775331535</v>
+        <v>1689.653775331536</v>
       </c>
       <c r="O27" t="n">
         <v>2100.61505474959</v>
@@ -6333,13 +6333,13 @@
         <v>2439.173963958288</v>
       </c>
       <c r="T27" t="n">
-        <v>2246.530963636144</v>
+        <v>2246.530963636143</v>
       </c>
       <c r="U27" t="n">
-        <v>2018.46311677056</v>
+        <v>2018.463116770559</v>
       </c>
       <c r="V27" t="n">
-        <v>1783.311008538817</v>
+        <v>1783.311008538816</v>
       </c>
       <c r="W27" t="n">
         <v>1529.073651810615</v>
@@ -6348,7 +6348,7 @@
         <v>1321.222151605082</v>
       </c>
       <c r="Y27" t="n">
-        <v>1113.461852840129</v>
+        <v>1113.461852840128</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.1689111442461</v>
+        <v>763.1689111442458</v>
       </c>
       <c r="C28" t="n">
-        <v>641.6823611644124</v>
+        <v>641.6823611644122</v>
       </c>
       <c r="D28" t="n">
-        <v>539.0153547001501</v>
+        <v>539.0153547001498</v>
       </c>
       <c r="E28" t="n">
-        <v>438.5518940658303</v>
+        <v>438.5518940658299</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1115795159933</v>
+        <v>339.1115795159928</v>
       </c>
       <c r="G28" t="n">
-        <v>218.8583758387854</v>
+        <v>218.8583758387852</v>
       </c>
       <c r="H28" t="n">
-        <v>120.0908220047165</v>
+        <v>120.0908220047168</v>
       </c>
       <c r="I28" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J28" t="n">
         <v>161.8427954704776</v>
       </c>
       <c r="K28" t="n">
-        <v>412.3353636717605</v>
+        <v>412.3353636717606</v>
       </c>
       <c r="L28" t="n">
         <v>775.4005473726634</v>
@@ -6418,7 +6418,7 @@
         <v>1700.452999518514</v>
       </c>
       <c r="V28" t="n">
-        <v>1493.218144260701</v>
+        <v>1493.2181442607</v>
       </c>
       <c r="W28" t="n">
         <v>1251.250607171813</v>
@@ -6427,7 +6427,7 @@
         <v>1070.710689221869</v>
       </c>
       <c r="Y28" t="n">
-        <v>897.3677430264124</v>
+        <v>897.3677430264122</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1549.341621936641</v>
+        <v>1829.190285439551</v>
       </c>
       <c r="C29" t="n">
-        <v>1227.828737944303</v>
+        <v>1507.677401447212</v>
       </c>
       <c r="D29" t="n">
-        <v>917.0126722856257</v>
+        <v>1196.861335788535</v>
       </c>
       <c r="E29" t="n">
-        <v>687.9715624212251</v>
+        <v>1051.507834262759</v>
       </c>
       <c r="F29" t="n">
-        <v>687.9715624212251</v>
+        <v>687.971562421225</v>
       </c>
       <c r="G29" t="n">
         <v>320.3487452142949</v>
       </c>
       <c r="H29" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="I29" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J29" t="n">
-        <v>259.0939087301608</v>
+        <v>426.4995577505138</v>
       </c>
       <c r="K29" t="n">
-        <v>592.9132824200071</v>
+        <v>774.3436880286561</v>
       </c>
       <c r="L29" t="n">
-        <v>1043.947495668416</v>
+        <v>1225.377901277065</v>
       </c>
       <c r="M29" t="n">
-        <v>1577.47940034034</v>
+        <v>1758.909805948989</v>
       </c>
       <c r="N29" t="n">
-        <v>2124.258217399122</v>
+        <v>2305.688623007771</v>
       </c>
       <c r="O29" t="n">
-        <v>2627.230688278459</v>
+        <v>2808.661093887108</v>
       </c>
       <c r="P29" t="n">
-        <v>3203.435460244283</v>
+        <v>3203.435460244286</v>
       </c>
       <c r="Q29" t="n">
-        <v>3451.721821999965</v>
+        <v>3451.721821999968</v>
       </c>
       <c r="R29" t="n">
-        <v>3510.738888556768</v>
+        <v>3510.738888556771</v>
       </c>
       <c r="S29" t="n">
-        <v>3510.738888556768</v>
+        <v>3447.897853031939</v>
       </c>
       <c r="T29" t="n">
-        <v>3352.210773889063</v>
+        <v>3289.369738364234</v>
       </c>
       <c r="U29" t="n">
-        <v>3146.129930110973</v>
+        <v>3083.288894586144</v>
       </c>
       <c r="V29" t="n">
-        <v>2862.516675715476</v>
+        <v>2799.675640190647</v>
       </c>
       <c r="W29" t="n">
-        <v>2557.197653393435</v>
+        <v>2494.356617868606</v>
       </c>
       <c r="X29" t="n">
-        <v>2231.181528080428</v>
+        <v>2168.340492555599</v>
       </c>
       <c r="Y29" t="n">
-        <v>1888.49182905269</v>
+        <v>2168.340492555599</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>945.2465158200606</v>
+        <v>945.24651582006</v>
       </c>
       <c r="C30" t="n">
-        <v>770.7934865389336</v>
+        <v>770.7934865389331</v>
       </c>
       <c r="D30" t="n">
-        <v>621.8590768776824</v>
+        <v>621.8590768776818</v>
       </c>
       <c r="E30" t="n">
-        <v>462.6216218722268</v>
+        <v>462.6216218722263</v>
       </c>
       <c r="F30" t="n">
-        <v>316.0870638991118</v>
+        <v>316.0870638991113</v>
       </c>
       <c r="G30" t="n">
-        <v>179.7239637317299</v>
+        <v>179.7239637317294</v>
       </c>
       <c r="H30" t="n">
-        <v>89.22206936959742</v>
+        <v>89.22206936959689</v>
       </c>
       <c r="I30" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J30" t="n">
-        <v>163.8920472617526</v>
+        <v>163.8920472617527</v>
       </c>
       <c r="K30" t="n">
-        <v>402.1562462420997</v>
+        <v>402.1562462420998</v>
       </c>
       <c r="L30" t="n">
-        <v>768.854406554765</v>
+        <v>768.8544065547651</v>
       </c>
       <c r="M30" t="n">
         <v>1216.130731777081</v>
@@ -6570,13 +6570,13 @@
         <v>2439.173963958288</v>
       </c>
       <c r="T30" t="n">
-        <v>2246.530963636144</v>
+        <v>2246.530963636143</v>
       </c>
       <c r="U30" t="n">
-        <v>2018.46311677056</v>
+        <v>2018.463116770559</v>
       </c>
       <c r="V30" t="n">
-        <v>1783.311008538817</v>
+        <v>1783.311008538816</v>
       </c>
       <c r="W30" t="n">
         <v>1529.073651810615</v>
@@ -6585,7 +6585,7 @@
         <v>1321.222151605082</v>
       </c>
       <c r="Y30" t="n">
-        <v>1113.461852840129</v>
+        <v>1113.461852840128</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.1689111442462</v>
+        <v>763.1689111442463</v>
       </c>
       <c r="C31" t="n">
-        <v>641.6823611644126</v>
+        <v>641.6823611644127</v>
       </c>
       <c r="D31" t="n">
-        <v>539.0153547001502</v>
+        <v>539.0153547001503</v>
       </c>
       <c r="E31" t="n">
-        <v>438.5518940658304</v>
+        <v>438.5518940658305</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1115795159933</v>
+        <v>339.1115795159935</v>
       </c>
       <c r="G31" t="n">
-        <v>218.8583758387856</v>
+        <v>218.8583758387857</v>
       </c>
       <c r="H31" t="n">
-        <v>120.0908220047167</v>
+        <v>120.0908220047168</v>
       </c>
       <c r="I31" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J31" t="n">
-        <v>161.8427954704778</v>
+        <v>161.8427954704775</v>
       </c>
       <c r="K31" t="n">
-        <v>412.3353636717608</v>
+        <v>412.3353636717605</v>
       </c>
       <c r="L31" t="n">
-        <v>775.4005473726635</v>
+        <v>775.4005473726633</v>
       </c>
       <c r="M31" t="n">
         <v>1166.062978224619</v>
@@ -6640,25 +6640,25 @@
         <v>2178.924610041776</v>
       </c>
       <c r="Q31" t="n">
-        <v>2303.040291446698</v>
+        <v>2303.040291446697</v>
       </c>
       <c r="R31" t="n">
-        <v>2260.659467152299</v>
+        <v>2260.659467152298</v>
       </c>
       <c r="S31" t="n">
-        <v>2116.423215927199</v>
+        <v>2116.423215927198</v>
       </c>
       <c r="T31" t="n">
-        <v>1942.106233444798</v>
+        <v>1942.106233444797</v>
       </c>
       <c r="U31" t="n">
-        <v>1700.452999518515</v>
+        <v>1700.452999518514</v>
       </c>
       <c r="V31" t="n">
         <v>1493.218144260701</v>
       </c>
       <c r="W31" t="n">
-        <v>1251.250607171814</v>
+        <v>1251.250607171813</v>
       </c>
       <c r="X31" t="n">
         <v>1070.710689221869</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1792.600481927316</v>
+        <v>1792.600481927317</v>
       </c>
       <c r="C32" t="n">
-        <v>1509.350084874416</v>
+        <v>1509.350084874417</v>
       </c>
       <c r="D32" t="n">
-        <v>1236.796506155177</v>
+        <v>1236.796506155178</v>
       </c>
       <c r="E32" t="n">
-        <v>936.7203734444442</v>
+        <v>936.7203734444449</v>
       </c>
       <c r="F32" t="n">
-        <v>611.4465885423482</v>
+        <v>611.4465885423488</v>
       </c>
       <c r="G32" t="n">
-        <v>282.0862582748566</v>
+        <v>282.0862582748568</v>
       </c>
       <c r="H32" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="I32" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J32" t="n">
         <v>259.0939087301608</v>
@@ -6707,43 +6707,43 @@
         <v>1043.947495668416</v>
       </c>
       <c r="M32" t="n">
-        <v>1758.909805948986</v>
+        <v>1577.47940034034</v>
       </c>
       <c r="N32" t="n">
-        <v>2305.688623007768</v>
+        <v>2124.258217399122</v>
       </c>
       <c r="O32" t="n">
-        <v>2808.661093887105</v>
+        <v>2808.661093887108</v>
       </c>
       <c r="P32" t="n">
-        <v>3203.435460244283</v>
+        <v>3203.435460244286</v>
       </c>
       <c r="Q32" t="n">
-        <v>3451.721821999965</v>
+        <v>3451.721821999968</v>
       </c>
       <c r="R32" t="n">
-        <v>3510.738888556768</v>
+        <v>3510.738888556771</v>
       </c>
       <c r="S32" t="n">
-        <v>3486.160339971374</v>
+        <v>3486.160339971377</v>
       </c>
       <c r="T32" t="n">
-        <v>3365.894712243108</v>
+        <v>3365.89471224311</v>
       </c>
       <c r="U32" t="n">
-        <v>3198.076355404457</v>
+        <v>3198.076355404458</v>
       </c>
       <c r="V32" t="n">
-        <v>2952.725587948397</v>
+        <v>2952.725587948399</v>
       </c>
       <c r="W32" t="n">
-        <v>2685.669052565795</v>
+        <v>2685.669052565796</v>
       </c>
       <c r="X32" t="n">
-        <v>2397.915414192226</v>
+        <v>2397.915414192228</v>
       </c>
       <c r="Y32" t="n">
-        <v>2093.488202103926</v>
+        <v>2093.488202103928</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>945.2465158200606</v>
+        <v>945.24651582006</v>
       </c>
       <c r="C33" t="n">
-        <v>770.7934865389336</v>
+        <v>770.7934865389331</v>
       </c>
       <c r="D33" t="n">
-        <v>621.8590768776824</v>
+        <v>621.8590768776818</v>
       </c>
       <c r="E33" t="n">
-        <v>462.6216218722268</v>
+        <v>462.6216218722263</v>
       </c>
       <c r="F33" t="n">
-        <v>316.0870638991118</v>
+        <v>316.0870638991113</v>
       </c>
       <c r="G33" t="n">
-        <v>179.7239637317299</v>
+        <v>179.7239637317294</v>
       </c>
       <c r="H33" t="n">
-        <v>89.22206936959742</v>
+        <v>89.22206936959689</v>
       </c>
       <c r="I33" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J33" t="n">
-        <v>163.8920472617526</v>
+        <v>163.8920472617527</v>
       </c>
       <c r="K33" t="n">
-        <v>402.1562462420997</v>
+        <v>402.1562462420998</v>
       </c>
       <c r="L33" t="n">
-        <v>768.854406554765</v>
+        <v>768.8544065547651</v>
       </c>
       <c r="M33" t="n">
         <v>1216.130731777081</v>
@@ -6807,13 +6807,13 @@
         <v>2439.173963958288</v>
       </c>
       <c r="T33" t="n">
-        <v>2246.530963636144</v>
+        <v>2246.530963636143</v>
       </c>
       <c r="U33" t="n">
-        <v>2018.46311677056</v>
+        <v>2018.463116770559</v>
       </c>
       <c r="V33" t="n">
-        <v>1783.311008538817</v>
+        <v>1783.311008538816</v>
       </c>
       <c r="W33" t="n">
         <v>1529.073651810615</v>
@@ -6822,7 +6822,7 @@
         <v>1321.222151605082</v>
       </c>
       <c r="Y33" t="n">
-        <v>1113.461852840129</v>
+        <v>1113.461852840128</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.0639718049138</v>
+        <v>564.0639718049129</v>
       </c>
       <c r="C34" t="n">
-        <v>480.8399087645184</v>
+        <v>480.8399087645173</v>
       </c>
       <c r="D34" t="n">
-        <v>416.4353892396942</v>
+        <v>416.435389239693</v>
       </c>
       <c r="E34" t="n">
-        <v>354.2344155448127</v>
+        <v>354.2344155448113</v>
       </c>
       <c r="F34" t="n">
-        <v>293.0565879344139</v>
+        <v>293.0565879344123</v>
       </c>
       <c r="G34" t="n">
-        <v>211.0658711966444</v>
+        <v>142.3334019599095</v>
       </c>
       <c r="H34" t="n">
-        <v>150.5608043020137</v>
+        <v>81.82833506527869</v>
       </c>
       <c r="I34" t="n">
-        <v>70.21477777113536</v>
+        <v>70.21477777113542</v>
       </c>
       <c r="J34" t="n">
         <v>115.3374102180709</v>
@@ -6880,10 +6880,10 @@
         <v>1930.997209427444</v>
       </c>
       <c r="R34" t="n">
-        <v>1841.166752184972</v>
+        <v>1926.878872072483</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.19298789931</v>
+        <v>1820.905107786821</v>
       </c>
       <c r="T34" t="n">
         <v>1599.138492356347</v>
@@ -6892,16 +6892,16 @@
         <v>1395.747745369502</v>
       </c>
       <c r="V34" t="n">
-        <v>1226.775377051127</v>
+        <v>1141.063257163615</v>
       </c>
       <c r="W34" t="n">
-        <v>1023.070326901678</v>
+        <v>937.3582070141657</v>
       </c>
       <c r="X34" t="n">
-        <v>795.0807760036605</v>
+        <v>795.0807760036598</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.0003167476419</v>
+        <v>660.0003167476411</v>
       </c>
     </row>
     <row r="35">
@@ -6920,52 +6920,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>499.5850729987469</v>
+        <v>500.9308303909354</v>
       </c>
       <c r="C37" t="n">
-        <v>429.3203246446834</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D37" t="n">
-        <v>377.8751198061911</v>
+        <v>379.2208771983797</v>
       </c>
       <c r="E37" t="n">
-        <v>328.6334607976414</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F37" t="n">
-        <v>280.4149478735745</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.410616184332</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891711</v>
+        <v>934.0185561150356</v>
       </c>
       <c r="X37" t="n">
-        <v>748.6622761911538</v>
+        <v>804.7004397908618</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.5411316214671</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7275,28 +7275,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127577</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586942</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D40" t="n">
-        <v>619.1970173202019</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E40" t="n">
-        <v>471.2839237378088</v>
+        <v>282.7820319214933</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398984</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>985.4928044205424</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388407</v>
+        <v>757.503253522525</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.884000769154</v>
+        <v>635.3821089528384</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464971</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7427,19 +7427,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515854</v>
@@ -7448,13 +7448,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7512,28 +7512,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389139</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848504</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725147</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901216</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>225.7225416660546</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>156.691139614617</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515026</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891709</v>
+        <v>835.3471215411921</v>
       </c>
       <c r="X43" t="n">
-        <v>847.333710764997</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953103</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7670,7 +7670,7 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
         <v>3313.986587710109</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>795.5993767202772</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>725.3346283662137</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>673.8894235277214</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1476.774456965695</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V46" t="n">
-        <v>1320.761403333651</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W46" t="n">
-        <v>1130.015667870534</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>1000.69755154636</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.5764069766735</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>130.4531718316585</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>130.4531718316626</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>117.5466160953497</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>117.546616095347</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>14.16642079625848</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>183.2630359683293</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>183.2630359683296</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>183.2630359683324</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>323.6959619980818</v>
       </c>
       <c r="D11" t="n">
-        <v>313.1061118477569</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687857</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>96.51398840564048</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>100.6436719720779</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.51948462477684</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.178085141395</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.6975697661683</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980818</v>
       </c>
       <c r="D14" t="n">
-        <v>59.96362310737681</v>
+        <v>313.1061118477572</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524984</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>286.1753286972089</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>148.7069925266699</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>24.8534515161669</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8441182500055</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.92207912925548</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691212</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>127.8571537122129</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>127.8571537122115</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>127.8571537122127</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>12.49124996410872</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>115.3659037481016</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>282.6854412118838</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24500,10 +24500,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>249.5409471290724</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24686,10 +24686,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>108.2045346879124</v>
+        <v>191.0552669431512</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
     </row>
     <row r="42">
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806616.5990622472</v>
+        <v>806616.599062247</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806616.5990622471</v>
+        <v>806616.5990622467</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>864826.3246805022</v>
+        <v>864826.3246805019</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881223.8654505586</v>
+        <v>881223.8654505588</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839211.8970970623</v>
+        <v>839211.8970970628</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839211.8970970623</v>
+        <v>839211.8970970627</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>883535.8813024621</v>
+        <v>883535.8813024622</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="D2" t="n">
         <v>573499.6797738691</v>
       </c>
       <c r="E2" t="n">
-        <v>528798.5545546511</v>
+        <v>528798.5545546499</v>
       </c>
       <c r="F2" t="n">
-        <v>528798.5545546509</v>
+        <v>528798.5545546499</v>
       </c>
       <c r="G2" t="n">
-        <v>567605.0383001538</v>
+        <v>567605.038300154</v>
       </c>
       <c r="H2" t="n">
-        <v>567605.0383001539</v>
+        <v>567605.038300154</v>
       </c>
       <c r="I2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="J2" t="n">
-        <v>545179.9161013988</v>
+        <v>545179.9161013991</v>
       </c>
       <c r="K2" t="n">
-        <v>545179.9161013989</v>
+        <v>545179.9161013992</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="M2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="P2" t="n">
         <v>574729.2389049984</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23867.46271815525</v>
+        <v>23867.46271815522</v>
       </c>
       <c r="E3" t="n">
         <v>1134639.502769914</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487387</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8761.054981525598</v>
+        <v>8761.054981525607</v>
       </c>
       <c r="J3" t="n">
-        <v>3489.594451850271</v>
+        <v>3489.594451850241</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67883.99895090912</v>
+        <v>67883.99895090899</v>
       </c>
       <c r="M3" t="n">
-        <v>205918.3703197455</v>
+        <v>205918.3703197456</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>453714.1813163771</v>
       </c>
       <c r="E4" t="n">
-        <v>56055.39944609832</v>
+        <v>56055.3994460981</v>
       </c>
       <c r="F4" t="n">
-        <v>56055.39944609832</v>
+        <v>56055.3994460981</v>
       </c>
       <c r="G4" t="n">
-        <v>87594.8452125091</v>
+        <v>87594.845212509</v>
       </c>
       <c r="H4" t="n">
-        <v>87594.8452125091</v>
+        <v>87594.84521250897</v>
       </c>
       <c r="I4" t="n">
-        <v>93321.66118401583</v>
+        <v>93321.66118401586</v>
       </c>
       <c r="J4" t="n">
-        <v>69310.4145598482</v>
+        <v>69310.4145598483</v>
       </c>
       <c r="K4" t="n">
-        <v>69310.41455984817</v>
+        <v>69310.41455984833</v>
       </c>
       <c r="L4" t="n">
-        <v>93288.41519154873</v>
+        <v>93288.41519154876</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820639</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>77801.6714704734</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.6714704734</v>
+        <v>77801.67147047339</v>
       </c>
       <c r="G5" t="n">
         <v>81750.82423086185</v>
@@ -26488,28 +26488,28 @@
         <v>81750.82423086185</v>
       </c>
       <c r="I5" t="n">
-        <v>83753.94599588514</v>
+        <v>83753.94599588517</v>
       </c>
       <c r="J5" t="n">
-        <v>81069.51593938522</v>
+        <v>81069.51593938528</v>
       </c>
       <c r="K5" t="n">
-        <v>81069.51593938522</v>
+        <v>81069.51593938528</v>
       </c>
       <c r="L5" t="n">
-        <v>84254.03806375174</v>
+        <v>84254.03806375178</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76715.10599981711</v>
+        <v>76710.69242194889</v>
       </c>
       <c r="C6" t="n">
-        <v>76715.10599981723</v>
+        <v>76710.69242194889</v>
       </c>
       <c r="D6" t="n">
-        <v>61682.889987801</v>
+        <v>61678.49870518982</v>
       </c>
       <c r="E6" t="n">
-        <v>-739698.0191318346</v>
+        <v>-739862.0572902299</v>
       </c>
       <c r="F6" t="n">
-        <v>394941.4836380792</v>
+        <v>394777.4454796843</v>
       </c>
       <c r="G6" t="n">
-        <v>360679.2595619088</v>
+        <v>360653.8159883206</v>
       </c>
       <c r="H6" t="n">
-        <v>398259.368856783</v>
+        <v>398233.9252831945</v>
       </c>
       <c r="I6" t="n">
-        <v>388892.5767435716</v>
+        <v>388892.5767435717</v>
       </c>
       <c r="J6" t="n">
-        <v>391310.3911503151</v>
+        <v>391204.8578545881</v>
       </c>
       <c r="K6" t="n">
-        <v>394799.9856021655</v>
+        <v>394694.4523064385</v>
       </c>
       <c r="L6" t="n">
-        <v>329302.7866987889</v>
+        <v>329302.7866987892</v>
       </c>
       <c r="M6" t="n">
-        <v>192888.4844307967</v>
+        <v>192888.4844307965</v>
       </c>
       <c r="N6" t="n">
-        <v>398806.8547505423</v>
+        <v>398806.8547505421</v>
       </c>
       <c r="O6" t="n">
-        <v>398806.8547505423</v>
+        <v>398806.8547505419</v>
       </c>
       <c r="P6" t="n">
-        <v>398806.8547505423</v>
+        <v>398806.8547505421</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F2" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G2" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="H2" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="I2" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="L2" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.86907117136718</v>
+        <v>27.86907117136715</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>864.3475370638596</v>
+        <v>864.3475370638604</v>
       </c>
       <c r="J4" t="n">
-        <v>877.684722139192</v>
+        <v>877.6847221391927</v>
       </c>
       <c r="K4" t="n">
-        <v>877.684722139192</v>
+        <v>877.6847221391927</v>
       </c>
       <c r="L4" t="n">
-        <v>877.684722139192</v>
+        <v>877.6847221391927</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>84.85499868863641</v>
+        <v>84.85499868863624</v>
       </c>
       <c r="M2" t="n">
-        <v>12.82972153946857</v>
+        <v>12.82972153946876</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.86907117136718</v>
+        <v>27.86907117136715</v>
       </c>
       <c r="E3" t="n">
         <v>1061.907629421931</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>32.94608166156706</v>
+        <v>32.94608166156775</v>
       </c>
       <c r="J4" t="n">
-        <v>13.3371850753324</v>
+        <v>13.33718507533229</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>785.1181886653932</v>
+        <v>785.1181886653928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>206.1566036755953</v>
       </c>
       <c r="J8" t="n">
-        <v>2.440334261825278</v>
+        <v>2.440334261825289</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -28032,10 +28032,10 @@
         <v>153.9391489037356</v>
       </c>
       <c r="J10" t="n">
-        <v>89.80610197733306</v>
+        <v>89.80610197733307</v>
       </c>
       <c r="K10" t="n">
-        <v>16.43069298047183</v>
+        <v>16.43069298047184</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="C11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="D11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="E11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="H11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="I11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="T11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="U11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="V11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="W11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="X11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="C13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="D13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="E13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="H13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="I13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="J13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="K13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="L13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="M13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="N13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="O13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="P13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="R13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="S13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="T13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="U13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="V13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="W13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="X13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="C14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="D14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="E14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="H14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="I14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="T14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="U14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="V14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="W14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="X14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="C16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="D16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="E16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="H16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="I16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="J16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="K16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="L16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="M16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="N16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="O16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="P16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="R16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="S16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="T16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="U16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="V16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="W16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="X16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292579</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="C17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="D17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="E17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="F17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="G17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="H17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="T17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="U17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="V17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="W17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="X17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="Y17" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="C19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="D19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="E19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="F19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="G19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="H19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="I19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.55206639151855</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.30004039831914</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="T19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="U19" t="n">
-        <v>88.55206639151855</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.30004039832156</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="C20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="D20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="E20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="F20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="G20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="H20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="T20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="U20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="V20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="W20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="X20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="Y20" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="C22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="D22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="E22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="F22" t="n">
-        <v>88.55206639151855</v>
+        <v>57.3000403983211</v>
       </c>
       <c r="G22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="H22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="I22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.30004039831888</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="W22" t="n">
-        <v>88.55206639151855</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
       <c r="Y22" t="n">
-        <v>88.55206639151855</v>
+        <v>88.55206639151835</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="C23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="D23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="E23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="F23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="G23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="H23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="T23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="U23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="V23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="W23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="X23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="Y23" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="C25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="D25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="E25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="F25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="G25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="H25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="S25" t="n">
-        <v>88.55206639151858</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.30004039832113</v>
       </c>
       <c r="V25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="W25" t="n">
-        <v>88.55206639151858</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="X25" t="n">
-        <v>57.3000403983184</v>
+        <v>88.55206639151837</v>
       </c>
       <c r="Y25" t="n">
-        <v>88.55206639151858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="C32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="D32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="E32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="F32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="G32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="H32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="T32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="U32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="V32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="W32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="X32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="Y32" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="C34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="D34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="E34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="F34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="G34" t="n">
-        <v>84.85499868863643</v>
+        <v>16.8098541442705</v>
       </c>
       <c r="H34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="I34" t="n">
-        <v>16.80985414426856</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="S34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="T34" t="n">
-        <v>84.85499868863643</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="V34" t="n">
-        <v>84.85499868863643</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>84.85499868863627</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.85499868863643</v>
+        <v>84.85499868863627</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.1454821454443</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810499</v>
+        <v>46.72521440565305</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="G40" t="n">
-        <v>55.47778196371119</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>55.47778196371154</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>46.72521440565299</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.14548214544448</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810498</v>
+        <v>55.4777819637109</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1120364670205715</v>
+        <v>0.1120364670205714</v>
       </c>
       <c r="H8" t="n">
-        <v>1.147393467874428</v>
+        <v>1.147393467874427</v>
       </c>
       <c r="I8" t="n">
-        <v>4.319285894810587</v>
+        <v>4.319285894810582</v>
       </c>
       <c r="J8" t="n">
-        <v>9.508955092787239</v>
+        <v>9.508955092787229</v>
       </c>
       <c r="K8" t="n">
-        <v>14.25145874176803</v>
+        <v>14.25145874176802</v>
       </c>
       <c r="L8" t="n">
-        <v>17.68019476934885</v>
+        <v>17.68019476934883</v>
       </c>
       <c r="M8" t="n">
-        <v>19.67262328972594</v>
+        <v>19.67262328972592</v>
       </c>
       <c r="N8" t="n">
-        <v>19.99094690164814</v>
+        <v>19.99094690164812</v>
       </c>
       <c r="O8" t="n">
-        <v>18.87688428271233</v>
+        <v>18.87688428271231</v>
       </c>
       <c r="P8" t="n">
-        <v>16.11098400314197</v>
+        <v>16.11098400314195</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.09867802796775</v>
+        <v>12.09867802796773</v>
       </c>
       <c r="R8" t="n">
-        <v>7.03771072148098</v>
+        <v>7.037710721480972</v>
       </c>
       <c r="S8" t="n">
-        <v>2.553030992231275</v>
+        <v>2.553030992231273</v>
       </c>
       <c r="T8" t="n">
-        <v>0.490439634382552</v>
+        <v>0.4904396343825514</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008962917361645718</v>
+        <v>0.008962917361645707</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05994479459501621</v>
+        <v>0.05994479459501614</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5789405162202882</v>
+        <v>0.5789405162202875</v>
       </c>
       <c r="I9" t="n">
-        <v>2.063888761275777</v>
+        <v>2.063888761275775</v>
       </c>
       <c r="J9" t="n">
-        <v>5.663468510400194</v>
+        <v>5.663468510400188</v>
       </c>
       <c r="K9" t="n">
-        <v>9.679769748266279</v>
+        <v>9.679769748266269</v>
       </c>
       <c r="L9" t="n">
-        <v>13.01564498432578</v>
+        <v>13.01564498432576</v>
       </c>
       <c r="M9" t="n">
-        <v>15.18864378839511</v>
+        <v>15.18864378839509</v>
       </c>
       <c r="N9" t="n">
-        <v>15.5906419942538</v>
+        <v>15.59064199425378</v>
       </c>
       <c r="O9" t="n">
-        <v>14.26239154559581</v>
+        <v>14.26239154559579</v>
       </c>
       <c r="P9" t="n">
-        <v>11.44682660999042</v>
+        <v>11.44682660999041</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.651900446900665</v>
+        <v>7.651900446900656</v>
       </c>
       <c r="R9" t="n">
-        <v>3.721835580206359</v>
+        <v>3.721835580206354</v>
       </c>
       <c r="S9" t="n">
-        <v>1.113448268025848</v>
+        <v>1.113448268025847</v>
       </c>
       <c r="T9" t="n">
-        <v>0.241619588740438</v>
+        <v>0.2416195887404378</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003943736486514225</v>
+        <v>0.003943736486514221</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05025570211230147</v>
+        <v>0.05025570211230141</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4468188787802806</v>
+        <v>0.4468188787802801</v>
       </c>
       <c r="I10" t="n">
-        <v>1.511326023522666</v>
+        <v>1.511326023522665</v>
       </c>
       <c r="J10" t="n">
-        <v>3.553078139339714</v>
+        <v>3.55307813933971</v>
       </c>
       <c r="K10" t="n">
-        <v>5.838798845411024</v>
+        <v>5.838798845411017</v>
       </c>
       <c r="L10" t="n">
-        <v>7.471652294041622</v>
+        <v>7.471652294041613</v>
       </c>
       <c r="M10" t="n">
-        <v>7.877809741112856</v>
+        <v>7.877809741112847</v>
       </c>
       <c r="N10" t="n">
-        <v>7.690493033239738</v>
+        <v>7.690493033239729</v>
       </c>
       <c r="O10" t="n">
-        <v>7.103415058564214</v>
+        <v>7.103415058564206</v>
       </c>
       <c r="P10" t="n">
-        <v>6.078198735473259</v>
+        <v>6.078198735473252</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.208229746876444</v>
+        <v>4.208229746876439</v>
       </c>
       <c r="R10" t="n">
-        <v>2.259679114976755</v>
+        <v>2.259679114976752</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8758198268116535</v>
+        <v>0.8758198268116525</v>
       </c>
       <c r="T10" t="n">
-        <v>0.214728909025288</v>
+        <v>0.2147289090252878</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002741220115216447</v>
+        <v>0.002741220115216444</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.1553463859922</v>
+        <v>87.15534638599202</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172454</v>
       </c>
       <c r="L13" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431239</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664096</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404659</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955656</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180362</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108195</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.1553463859922</v>
+        <v>87.15534638599202</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172454</v>
       </c>
       <c r="L16" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431239</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664096</v>
       </c>
       <c r="N16" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404659</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955656</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180362</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108195</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>321.2401728003711</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>529.2151580510342</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>308.3336170640623</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>368.3409208990665</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>351.3577073516589</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36847,7 +36847,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>582.025022187701</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>722.1841517985562</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>691.3160368565514</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
